--- a/NEW HR/MARTINEZ, LLOYD LOUIE S..xlsx
+++ b/NEW HR/MARTINEZ, LLOYD LOUIE S..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADC9112-E9A7-4AC6-9B51-B97F28CB439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E778F-F67A-4E74-A169-67473F8B67EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>5 - Single (including living common law)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -558,6 +561,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -570,20 +582,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2557,7 +2560,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2954,10 +2957,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4788" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2987,16 +2990,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3009,16 +3012,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>45019</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3031,14 +3034,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3064,18 +3067,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3122,7 +3125,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>1.167</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3132,7 +3135,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>1.167</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3180,15 +3183,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40">
+        <v>45077</v>
+      </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3196,15 +3203,19 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40">
+        <v>45107</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3212,15 +3223,19 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40">
+        <v>45138</v>
+      </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3228,15 +3243,19 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="40">
+        <v>45169</v>
+      </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3244,15 +3263,19 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="40">
+        <v>45199</v>
+      </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
@@ -3260,7 +3283,9 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="40">
+        <v>45230</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -3276,7 +3301,9 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="40">
+        <v>45260</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -3292,7 +3319,9 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="40">
+        <v>45291</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3308,7 +3337,9 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="40">
+        <v>45322</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3324,7 +3355,9 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="40">
+        <v>45351</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3340,7 +3373,9 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="40">
+        <v>45382</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -5149,17 +5184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5192,8 +5227,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5283,6 +5318,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5304,6 +5342,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
+        <v>14.834</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
